--- a/spliced/struggle/2023-03-25_18-15-39/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-39/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1293507218360901</v>
+        <v>-2.454914808273315</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1125519201159477</v>
+        <v>-0.2842050492763519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08384125679731361</v>
+        <v>-2.869386672973633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0087048299610614</v>
+        <v>2.025781869888306</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2784018218517303</v>
+        <v>1.884366512298584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1043052375316619</v>
+        <v>0.9054549932479858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8781188130378723</v>
+        <v>1.317789077758789</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6262896060943604</v>
+        <v>-1.244027018547058</v>
       </c>
       <c r="C4" t="n">
-        <v>5.040707111358643</v>
+        <v>1.031140565872192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.481806397438049</v>
+        <v>0.7573201656341553</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.243249893188477</v>
+        <v>-0.4138612151145935</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08659014850854869</v>
+        <v>0.1753183305263519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.561524271965027</v>
+        <v>0.5755877494812012</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.904219627380371</v>
+        <v>-0.2176207453012466</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.314276576042175</v>
+        <v>-1.24479067325592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.813658952713013</v>
+        <v>0.6409503817558289</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.191034555435181</v>
+        <v>-4.134488582611084</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.289842009544373</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.153897285461426</v>
+        <v>-1.424232363700867</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9796751141548156</v>
+        <v>-3.165656328201294</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.053729057312012</v>
+        <v>-0.2144137024879455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4179845452308655</v>
+        <v>-2.829985857009888</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6583600044250488</v>
+        <v>-4.054770946502686</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.204154491424561</v>
+        <v>1.877952456474304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0714712366461753</v>
+        <v>4.016286373138428</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5574145317077637</v>
+        <v>-3.601814270019531</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.121993064880371</v>
+        <v>-2.621833562850952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.656069278717041</v>
+        <v>-0.9879218339920044</v>
       </c>
       <c r="B11" t="n">
-        <v>2.356260061264038</v>
+        <v>4.384180068969727</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7611380815505981</v>
+        <v>1.598176240921021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.466965675354004</v>
+        <v>-3.011718273162842</v>
       </c>
       <c r="B12" t="n">
-        <v>5.502674102783203</v>
+        <v>2.93963623046875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3669773042201996</v>
+        <v>0.5337435007095337</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.454914808273315</v>
+        <v>-0.4014911949634552</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2842050492763519</v>
+        <v>0.9065240025520324</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.869386672973633</v>
+        <v>-0.6395758986473083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.025781869888306</v>
+        <v>-0.99250328540802</v>
       </c>
       <c r="B14" t="n">
-        <v>1.884366512298584</v>
+        <v>2.58121109008789</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9054549932479858</v>
+        <v>-0.3058907687664032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.317789077758789</v>
+        <v>-2.1601722240448</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.244027018547058</v>
+        <v>2.302809238433838</v>
       </c>
       <c r="C15" t="n">
-        <v>1.031140565872192</v>
+        <v>-0.3118467032909393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7573201656341553</v>
+        <v>-0.5739079117774963</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4138612151145935</v>
+        <v>-1.005178809165955</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1753183305263519</v>
+        <v>0.2600758671760559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5755877494812012</v>
+        <v>-1.500132322311401</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2176207453012466</v>
+        <v>1.276097536087036</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.24479067325592</v>
+        <v>-1.762957096099854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6409503817558289</v>
+        <v>-1.534646153450012</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.134488582611084</v>
+        <v>-1.36818540096283</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0209221355617046</v>
+        <v>0.8046622276306152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.424232363700867</v>
+        <v>-1.083674907684326</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.165656328201294</v>
+        <v>1.494787216186523</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2144137024879455</v>
+        <v>0.7244861721992493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.829985857009888</v>
+        <v>1.442405581474304</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.054770946502686</v>
+        <v>-1.076344609260559</v>
       </c>
       <c r="C20" t="n">
-        <v>1.877952456474304</v>
+        <v>0.901637077331543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.016286373138428</v>
+        <v>4.085466861724854</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.601814270019531</v>
+        <v>-3.372739791870117</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.621833562850952</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.9879218339920044</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.384180068969727</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.598176240921021</v>
+        <v>4.743368625640869</v>
       </c>
     </row>
   </sheetData>
